--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value172.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value172.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.457741606500676</v>
+        <v>0.5162392258644104</v>
       </c>
       <c r="B1">
-        <v>1.565318954314729</v>
+        <v>3.123090505599976</v>
       </c>
       <c r="C1">
-        <v>1.803664391522365</v>
+        <v>6.275584697723389</v>
       </c>
       <c r="D1">
-        <v>2.901364410946328</v>
+        <v>2.803411245346069</v>
       </c>
       <c r="E1">
-        <v>0.9604099800875294</v>
+        <v>1.907251119613647</v>
       </c>
     </row>
   </sheetData>
